--- a/biology/Botanique/Cyathea_dealbata/Cyathea_dealbata.xlsx
+++ b/biology/Botanique/Cyathea_dealbata/Cyathea_dealbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fougère argentée
 Cyathea dealbata, appelée aussi fougère argentée, est une espèce de fougère arborescente de la famille des Cyatheaceae, endémique de Nouvelle-Zélande.
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère peut mesurer 10 m et plus (toutefois elle prend de temps à autre une rare forme rampante). La couronne est dense, les frondes tendent à mesurer environ 4 m en longueur et sont argentées sous les feuilles.
 En maori ses jeunes pousses sont appelées « koru » et la plante elle-même « ponga » ou « kaponga ». En anglais elle est communément appelée « silver fern », soit « fougère argentée », en raison de l'aspect argenté de la face inférieure de sa fronde.
-Les Maoris l'utilisaient en forêt lors des nuits de pleine lune, en posant ses frondes à l'envers sur le sol pour retrouver leur chemin[1].
+Les Maoris l'utilisaient en forêt lors des nuits de pleine lune, en posant ses frondes à l'envers sur le sol pour retrouver leur chemin.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Symbole national néo-zélandais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fougère argentée est l'un des symboles nationaux de la Nouvelle-Zélande. Elle figure sur plusieurs symboles officiels, comme les armoiries de la Nouvelle-Zélande et la pièce de 1 dollar néo-zélandais. Elle constitue également l'emblème de nombre d'équipes sportives nationales dont la célèbre équipe de rugby à XV[2]. Sous sa forme développée ou sous celle de koru, elle figure sur la plupart des drapeaux alternatifs proposés pour la Nouvelle-Zélande, à l'instar du drapeau à la fougère argentée qui la représente en blanc sur fond noir.
-En 2015-2016, un référendum en deux parties se tient en Nouvelle-Zélande au sujet du drapeau actuel à connotation coloniale. L'un des drapeaux à la fougère remporte le premier référendum contre quatre autres propositions, puis perd le second en récoltant 43,3 % des suffrages (contre 56,6 % pour conserver le drapeau arborant l'Union Jack)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fougère argentée est l'un des symboles nationaux de la Nouvelle-Zélande. Elle figure sur plusieurs symboles officiels, comme les armoiries de la Nouvelle-Zélande et la pièce de 1 dollar néo-zélandais. Elle constitue également l'emblème de nombre d'équipes sportives nationales dont la célèbre équipe de rugby à XV. Sous sa forme développée ou sous celle de koru, elle figure sur la plupart des drapeaux alternatifs proposés pour la Nouvelle-Zélande, à l'instar du drapeau à la fougère argentée qui la représente en blanc sur fond noir.
+En 2015-2016, un référendum en deux parties se tient en Nouvelle-Zélande au sujet du drapeau actuel à connotation coloniale. L'un des drapeaux à la fougère remporte le premier référendum contre quatre autres propositions, puis perd le second en récoltant 43,3 % des suffrages (contre 56,6 % pour conserver le drapeau arborant l'Union Jack).
 			Drapeau proposé en 2015-2016 pour remplacer le drapeau actuel, remportant le premier référendum puis finalement perdant au second référendum (56,6 %)
 			Drapeau à la fougère argentée.
 			Avion de la Mount Cook Airline.
